--- a/SampleApp/模版/03读取excel内容/Sample04.xlsx
+++ b/SampleApp/模版/03读取excel内容/Sample04.xlsx
@@ -4,19 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4980" windowWidth="16470" windowHeight="1515" activeTab="1"/>
+    <workbookView xWindow="4290" yWindow="4980" windowWidth="16470" windowHeight="1515"/>
   </bookViews>
   <sheets>
-    <sheet name="逐行读取" sheetId="4" r:id="rId1"/>
-    <sheet name="合并行读取" sheetId="1" r:id="rId2"/>
-    <sheet name="指定行读取" sheetId="5" r:id="rId3"/>
+    <sheet name="合并行读取" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>静静</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>事业1部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,30 +77,6 @@
   </si>
   <si>
     <t>事业6部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>娱乐1部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>娱乐2部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>娱乐3部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>娱乐5部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>娱乐4部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>娱乐6部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -281,7 +251,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -315,15 +285,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -334,12 +304,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -438,7 +402,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCEDC7"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -719,136 +683,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -865,10 +699,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
@@ -880,11 +714,11 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20" t="s">
+      <c r="B2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="18" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -895,11 +729,11 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
@@ -908,291 +742,66 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="19"/>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="13"/>
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="15"/>
-      <c r="D5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>13</v>
+      <c r="D5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="19"/>
+      <c r="B7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="13"/>
       <c r="D7" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11">
-        <v>1</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11">
-        <v>2</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11">
-        <v>3</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11">
-        <v>4</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11">
-        <v>5</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11">
-        <v>6</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SampleApp/模版/03读取excel内容/Sample04.xlsx
+++ b/SampleApp/模版/03读取excel内容/Sample04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4980" windowWidth="16470" windowHeight="1515"/>
+    <workbookView minimized="1" xWindow="4290" yWindow="4980" windowWidth="16470" windowHeight="1515"/>
   </bookViews>
   <sheets>
     <sheet name="合并行读取" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,14 @@
   </si>
   <si>
     <t>事业6部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门评分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -251,7 +259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -282,18 +290,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -304,9 +318,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -402,7 +413,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="CCEDC7"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -681,21 +692,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.25" style="1" customWidth="1"/>
+    <col min="2" max="3" width="13.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.75" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -709,8 +721,11 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -718,14 +733,17 @@
         <v>8</v>
       </c>
       <c r="C2" s="13"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="F2" s="10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -733,12 +751,15 @@
         <v>9</v>
       </c>
       <c r="C3" s="13"/>
-      <c r="D3" s="18"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="F3" s="10">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -752,30 +773,35 @@
       <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>12</v>
+      <c r="E5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="14">
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -789,19 +815,23 @@
       <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
+      <c r="F7" s="10">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
